--- a/doc/query/嘉義_案件查詢 WebAPI_DataDictionary.xlsx
+++ b/doc/query/嘉義_案件查詢 WebAPI_DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="130" windowWidth="18210" windowHeight="7770"/>
+    <workbookView xWindow="480" yWindow="250" windowWidth="18210" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="個案查詢API" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>Table ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(255)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ProcessStatus</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -159,19 +155,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>small int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AssignDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分文日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(8)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -322,10 +310,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(14)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -513,11 +497,119 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atth_FileNames</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-mm-dd hh:mi:ss(24h)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>varchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyymmdd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>dept_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(20)</t>
+    <r>
+      <t>varchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -599,6 +691,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -654,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +827,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,9 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1066,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -1116,40 +1217,40 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1158,10 +1259,13 @@
         <v>18</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>74</v>
+        <v>95</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1170,25 +1274,25 @@
         <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1197,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1209,13 +1313,13 @@
         <v>24</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1239,7 +1343,7 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1251,15 +1355,15 @@
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>7</v>
@@ -1271,19 +1375,19 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
       <c r="B18" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="12"/>
       <c r="B19" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>13</v>
@@ -1295,73 +1399,82 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
+      <c r="D21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
+        <v>84</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -1370,28 +1483,31 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="12"/>
       <c r="B27" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>22</v>
@@ -1400,46 +1516,46 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
       <c r="B28" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="12"/>
       <c r="B30" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="12"/>
       <c r="B31" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -1448,10 +1564,10 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="12"/>
       <c r="B32" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1460,22 +1576,22 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="12"/>
       <c r="B33" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="12"/>
       <c r="B34" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -1484,22 +1600,22 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.4">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>22</v>
@@ -1526,19 +1642,19 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="12"/>
       <c r="B39" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
